--- a/data_craw/quarter/income_statement_quarter/ssb.xlsx
+++ b/data_craw/quarter/income_statement_quarter/ssb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43269000000</v>
+        <v>277404000000</v>
       </c>
       <c r="C4" t="n">
-        <v>1567047000000</v>
+        <v>322752000000</v>
       </c>
       <c r="D4" t="n">
-        <v>322516000000</v>
+        <v>105253000000</v>
       </c>
       <c r="E4" t="n">
-        <v>229726000000</v>
+        <v>109949000000</v>
       </c>
       <c r="F4" t="n">
-        <v>277404000000</v>
+        <v>103037000000</v>
       </c>
       <c r="G4" t="n">
-        <v>322752000000</v>
+        <v>119315000000</v>
       </c>
       <c r="H4" t="n">
-        <v>105253000000</v>
+        <v>101865000000</v>
       </c>
       <c r="I4" t="n">
-        <v>109949000000</v>
+        <v>96390000000</v>
       </c>
       <c r="J4" t="n">
-        <v>103037000000</v>
+        <v>101665000000</v>
       </c>
       <c r="K4" t="n">
-        <v>119315000000</v>
+        <v>115596000000</v>
       </c>
       <c r="L4" t="n">
-        <v>101865000000</v>
+        <v>79004000000</v>
       </c>
       <c r="M4" t="n">
-        <v>96390000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>101665000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>115596000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>79004000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>129618000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +620,45 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30340000000</v>
+        <v>66765000000</v>
       </c>
       <c r="C5" t="n">
-        <v>51584000000</v>
+        <v>123228000000</v>
       </c>
       <c r="D5" t="n">
-        <v>163337000000</v>
+        <v>56016000000</v>
       </c>
       <c r="E5" t="n">
-        <v>50775000000</v>
+        <v>61180000000</v>
       </c>
       <c r="F5" t="n">
-        <v>66765000000</v>
+        <v>55155000000</v>
       </c>
       <c r="G5" t="n">
-        <v>123228000000</v>
+        <v>84689000000</v>
       </c>
       <c r="H5" t="n">
-        <v>56016000000</v>
+        <v>55208000000</v>
       </c>
       <c r="I5" t="n">
-        <v>61180000000</v>
+        <v>64371000000</v>
       </c>
       <c r="J5" t="n">
-        <v>55155000000</v>
+        <v>57310000000</v>
       </c>
       <c r="K5" t="n">
-        <v>84689000000</v>
+        <v>45731000000</v>
       </c>
       <c r="L5" t="n">
-        <v>55208000000</v>
+        <v>41705000000</v>
       </c>
       <c r="M5" t="n">
-        <v>64371000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>57310000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>45731000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>41705000000</v>
-      </c>
-      <c r="Q5" t="n">
         <v>40627000000</v>
       </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,53 +690,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>215454000000</v>
+        <v>371511000000</v>
       </c>
       <c r="C7" t="n">
-        <v>562181000000</v>
+        <v>473107000000</v>
       </c>
       <c r="D7" t="n">
-        <v>308400000000</v>
+        <v>555150000000</v>
       </c>
       <c r="E7" t="n">
-        <v>209245000000</v>
+        <v>683223000000</v>
       </c>
       <c r="F7" t="n">
-        <v>371511000000</v>
+        <v>776659000000</v>
       </c>
       <c r="G7" t="n">
-        <v>473107000000</v>
+        <v>591486000000</v>
       </c>
       <c r="H7" t="n">
-        <v>555150000000</v>
+        <v>1048859000000</v>
       </c>
       <c r="I7" t="n">
-        <v>683223000000</v>
+        <v>1201905000000</v>
       </c>
       <c r="J7" t="n">
-        <v>776659000000</v>
+        <v>964752000000</v>
       </c>
       <c r="K7" t="n">
-        <v>591486000000</v>
+        <v>837412000000</v>
       </c>
       <c r="L7" t="n">
-        <v>1048859000000</v>
+        <v>853806000000</v>
       </c>
       <c r="M7" t="n">
-        <v>1201905000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>964752000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>837412000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>853806000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>753505000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
